--- a/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AR2_50_9_qoq_errors_first_eval_ifoCASTset_naive_qoq_full.xlsx
+++ b/0_1_Output_Data/6_naive_forecaster_qoq_error_series_ifoCASTset_naive_qoq_full/AR2_50_9_qoq_errors_first_eval_ifoCASTset_naive_qoq_full.xlsx
@@ -582,34 +582,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.9713005381550337</v>
+        <v>0.1630846444411361</v>
       </c>
       <c r="C2">
-        <v>0.2910874087102975</v>
+        <v>-1.088872551767469</v>
       </c>
       <c r="D2">
-        <v>-0.1449385904233094</v>
+        <v>0.2388572144868575</v>
       </c>
       <c r="E2">
-        <v>0.5154458957241742</v>
+        <v>-0.1694399950501343</v>
       </c>
       <c r="F2">
-        <v>-0.1879827916858758</v>
+        <v>0.5040425926957953</v>
       </c>
       <c r="G2">
-        <v>0.04615233206547309</v>
+        <v>-0.1932960119371557</v>
       </c>
       <c r="H2">
-        <v>0.08040507924932089</v>
+        <v>0.04367710249015017</v>
       </c>
       <c r="I2">
-        <v>0.9057460109392793</v>
+        <v>0.07925193655196383</v>
       </c>
       <c r="J2">
-        <v>0.249410584482785</v>
+        <v>0.9052087946043501</v>
       </c>
       <c r="K2">
-        <v>-0.4089899291462971</v>
+        <v>0.2491603105793238</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -617,34 +617,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.3128169072748576</v>
+        <v>0.6966127121850244</v>
       </c>
       <c r="C3">
-        <v>0.7245973247384453</v>
+        <v>0.03971143396413679</v>
       </c>
       <c r="D3">
-        <v>-0.08695745817427486</v>
+        <v>0.6050679262073962</v>
       </c>
       <c r="E3">
-        <v>0.1004139362101289</v>
+        <v>-0.1390344077924999</v>
       </c>
       <c r="F3">
-        <v>0.1144479125438225</v>
+        <v>0.07771993578465181</v>
       </c>
       <c r="G3">
-        <v>0.9310525395423103</v>
+        <v>0.1045584651549948</v>
       </c>
       <c r="H3">
-        <v>0.2709447666661666</v>
+        <v>0.9267429767877318</v>
       </c>
       <c r="I3">
-        <v>-0.3890834678507667</v>
+        <v>0.2690667718748542</v>
       </c>
       <c r="J3">
-        <v>0.0092130989630414</v>
+        <v>-0.3899018488887417</v>
       </c>
       <c r="K3">
-        <v>-0.05258007222182071</v>
+        <v>0.008856469899756692</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -652,34 +652,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.1030887313920102</v>
+        <v>0.5889366529896609</v>
       </c>
       <c r="C4">
-        <v>0.07647302587122451</v>
+        <v>-0.1629753181314043</v>
       </c>
       <c r="D4">
-        <v>0.09012235911373839</v>
+        <v>0.05339438235456767</v>
       </c>
       <c r="E4">
-        <v>0.9090979817469648</v>
+        <v>0.08260390735964929</v>
       </c>
       <c r="F4">
-        <v>0.2510647147722038</v>
+        <v>0.906862924893769</v>
       </c>
       <c r="G4">
-        <v>-0.4077104680353097</v>
+        <v>0.2504397716903112</v>
       </c>
       <c r="H4">
-        <v>-0.008762285969805494</v>
+        <v>-0.4078772338215886</v>
       </c>
       <c r="I4">
-        <v>-0.07024161732427531</v>
+        <v>-0.00880507520269791</v>
       </c>
       <c r="J4">
-        <v>-0.5044181462305073</v>
+        <v>-0.0702522111134038</v>
       </c>
       <c r="K4">
-        <v>0.4743807131573582</v>
+        <v>-0.5044206789217187</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -687,34 +687,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.1720753300388297</v>
+        <v>0.135347353279659</v>
       </c>
       <c r="C5">
-        <v>0.9182953219789133</v>
+        <v>0.0918012475915978</v>
       </c>
       <c r="D5">
-        <v>0.2313571522712326</v>
+        <v>0.8871553623927978</v>
       </c>
       <c r="E5">
-        <v>-0.4369487835323326</v>
+        <v>0.2212014561932883</v>
       </c>
       <c r="F5">
-        <v>-0.04090667078546828</v>
+        <v>-0.4400216186372514</v>
       </c>
       <c r="G5">
-        <v>-0.1032375837743004</v>
+        <v>-0.04180104165272297</v>
       </c>
       <c r="H5">
-        <v>-0.5376581911458389</v>
+        <v>-0.1034922560287353</v>
       </c>
       <c r="I5">
-        <v>0.4410716177777917</v>
+        <v>-0.5377297743012852</v>
       </c>
       <c r="J5">
-        <v>0.2139357511207785</v>
+        <v>0.4410516555687047</v>
       </c>
       <c r="K5">
-        <v>-0.4195295179412606</v>
+        <v>0.2139302114848279</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -722,34 +722,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.2025558615083408</v>
+        <v>0.8583540716299061</v>
       </c>
       <c r="C6">
-        <v>-0.4390725672109059</v>
+        <v>0.219077672514715</v>
       </c>
       <c r="D6">
-        <v>-0.03362370600304576</v>
+        <v>-0.4327386538548288</v>
       </c>
       <c r="E6">
-        <v>-0.09282107083105617</v>
+        <v>-0.03138452870947878</v>
       </c>
       <c r="F6">
-        <v>-0.5262170457115171</v>
+        <v>-0.09205111059441351</v>
       </c>
       <c r="G6">
-        <v>0.4528464178518407</v>
+        <v>-0.5259549742272362</v>
       </c>
       <c r="H6">
-        <v>0.2258193719441708</v>
+        <v>0.452935276392097</v>
       </c>
       <c r="I6">
-        <v>-0.4076102730996941</v>
+        <v>0.2258494563263944</v>
       </c>
       <c r="J6">
-        <v>0.01979686535210479</v>
+        <v>-0.4076000933034996</v>
       </c>
       <c r="K6">
-        <v>-0.1465366454910707</v>
+        <v>0.0198003091970762</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -757,34 +757,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.155505867098859</v>
+        <v>-0.5546208149506421</v>
       </c>
       <c r="C7">
-        <v>-0.1846662397643801</v>
+        <v>-0.1232296976428027</v>
       </c>
       <c r="D7">
-        <v>-0.6060897922829254</v>
+        <v>-0.1719238571658218</v>
       </c>
       <c r="E7">
-        <v>0.3779170903031727</v>
+        <v>-0.6008843017759042</v>
       </c>
       <c r="F7">
-        <v>0.1529367346250136</v>
+        <v>0.3800526390729398</v>
       </c>
       <c r="G7">
-        <v>-0.4796464385677615</v>
+        <v>0.1538132908583271</v>
       </c>
       <c r="H7">
-        <v>-0.0518896668375835</v>
+        <v>-0.4792866254931878</v>
       </c>
       <c r="I7">
-        <v>-0.2180789225979328</v>
+        <v>-0.05174196790978589</v>
       </c>
       <c r="J7">
-        <v>-0.09530727747379439</v>
+        <v>-0.2180182939146202</v>
       </c>
       <c r="K7">
-        <v>-0.04804865355017168</v>
+        <v>-0.09528239010531198</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -792,34 +792,34 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-0.5107750206255626</v>
+        <v>-0.07660908550845907</v>
       </c>
       <c r="C8">
-        <v>0.4561847949904575</v>
+        <v>-0.5226165970886194</v>
       </c>
       <c r="D8">
-        <v>0.2235272252108875</v>
+        <v>0.4506431296588137</v>
       </c>
       <c r="E8">
-        <v>-0.412585116272613</v>
+        <v>0.2208746131534756</v>
       </c>
       <c r="F8">
-        <v>0.01354370435888463</v>
+        <v>-0.4138532542967197</v>
       </c>
       <c r="G8">
-        <v>-0.1533995520910376</v>
+        <v>0.01293740259710929</v>
       </c>
       <c r="H8">
-        <v>-0.03097840982344718</v>
+        <v>-0.153689426264273</v>
       </c>
       <c r="I8">
-        <v>0.01611673723937751</v>
+        <v>-0.03111699931576278</v>
       </c>
       <c r="J8">
-        <v>-0.3805682542294263</v>
+        <v>0.01605047729302533</v>
       </c>
       <c r="K8">
-        <v>-0.1265478981343244</v>
+        <v>-0.3805999332580445</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -827,34 +827,34 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.4836497670136274</v>
+        <v>0.7107656714615536</v>
       </c>
       <c r="C9">
-        <v>-0.2716791846901883</v>
+        <v>0.3617805447359003</v>
       </c>
       <c r="D9">
-        <v>0.0989882439940924</v>
+        <v>-0.3284087146615119</v>
       </c>
       <c r="E9">
-        <v>-0.09374781479368632</v>
+        <v>0.07258913989446059</v>
       </c>
       <c r="F9">
-        <v>0.01667832048765883</v>
+        <v>-0.106032695953167</v>
       </c>
       <c r="G9">
-        <v>0.058195260878178</v>
+        <v>0.01096152432303771</v>
       </c>
       <c r="H9">
-        <v>-0.3410837941741738</v>
+        <v>0.0555349373482778</v>
       </c>
       <c r="I9">
-        <v>-0.0882697463915933</v>
+        <v>-0.3423217815153134</v>
       </c>
       <c r="J9">
-        <v>0.1312785433800194</v>
+        <v>-0.0888458464935532</v>
       </c>
       <c r="K9">
-        <v>-0.1047779946421779</v>
+        <v>0.1310104539444903</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -862,34 +862,34 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.09862000608775029</v>
+        <v>-0.5260169647433546</v>
       </c>
       <c r="C10">
-        <v>-0.2177076384565043</v>
+        <v>-0.05137068376835741</v>
       </c>
       <c r="D10">
-        <v>-0.07470130014448528</v>
+        <v>-0.1974123165853111</v>
       </c>
       <c r="E10">
-        <v>-0.018762957560511</v>
+        <v>-0.06599669411565129</v>
       </c>
       <c r="F10">
-        <v>-0.4116486652957548</v>
+        <v>-0.01502993377330319</v>
       </c>
       <c r="G10">
-        <v>-0.1559957098169479</v>
+        <v>-0.410047744940668</v>
       </c>
       <c r="H10">
-        <v>0.06481524009958373</v>
+        <v>-0.1553091497739889</v>
       </c>
       <c r="I10">
-        <v>-0.1706787749263282</v>
+        <v>0.06510967366033998</v>
       </c>
       <c r="J10">
-        <v>-0.3495252635842865</v>
+        <v>-0.1705525061135018</v>
       </c>
       <c r="K10">
-        <v>-0.3600316430428294</v>
+        <v>-0.3494711127835084</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -897,34 +897,34 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.007299246851658558</v>
+        <v>-0.1300102632924844</v>
       </c>
       <c r="C11">
-        <v>0.05611473536190403</v>
+        <v>0.00888099880676374</v>
       </c>
       <c r="D11">
-        <v>-0.3334825685761003</v>
+        <v>0.06313616294635133</v>
       </c>
       <c r="E11">
-        <v>-0.07638392106091824</v>
+        <v>-0.3304359561846383</v>
       </c>
       <c r="F11">
-        <v>0.1450623997799764</v>
+        <v>-0.07506199009359621</v>
       </c>
       <c r="G11">
-        <v>-0.09015246042256481</v>
+        <v>0.1456359881641034</v>
       </c>
       <c r="H11">
-        <v>-0.2688763367924936</v>
+        <v>-0.08990357932170889</v>
       </c>
       <c r="I11">
-        <v>-0.2793288770644347</v>
+        <v>-0.2687683468051136</v>
       </c>
       <c r="J11">
-        <v>-0.4870011301597575</v>
+        <v>-0.2792820200016274</v>
       </c>
       <c r="K11">
-        <v>-0.2697718993153602</v>
+        <v>-0.4869807987902649</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -932,34 +932,34 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.3458392694900738</v>
+        <v>0.05077946203237782</v>
       </c>
       <c r="C12">
-        <v>-0.09057491098672893</v>
+        <v>-0.344626946110449</v>
       </c>
       <c r="D12">
-        <v>0.1301161455573347</v>
+        <v>-0.09000824431623794</v>
       </c>
       <c r="E12">
-        <v>-0.1054089187162663</v>
+        <v>0.1303795298704019</v>
       </c>
       <c r="F12">
-        <v>-0.2842592456064009</v>
+        <v>-0.1052864881356162</v>
       </c>
       <c r="G12">
-        <v>-0.2947628657683481</v>
+        <v>-0.2842023355090271</v>
       </c>
       <c r="H12">
-        <v>-0.5024555220843632</v>
+        <v>-0.2947364119262331</v>
       </c>
       <c r="I12">
-        <v>-0.285234325920563</v>
+        <v>-0.5024432253954677</v>
       </c>
       <c r="J12">
-        <v>0.02445755927687465</v>
+        <v>-0.2852286099811868</v>
       </c>
       <c r="K12">
-        <v>-0.1298439175827339</v>
+        <v>0.02446021624927014</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -967,34 +967,34 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.3024188481467391</v>
+        <v>0.0822944582731665</v>
       </c>
       <c r="C13">
-        <v>-0.01091678595725426</v>
+        <v>0.2248716626294139</v>
       </c>
       <c r="D13">
-        <v>-0.2259338067192559</v>
+        <v>-0.04696104924847117</v>
       </c>
       <c r="E13">
-        <v>-0.2532411366013347</v>
+        <v>-0.2426806063420137</v>
       </c>
       <c r="F13">
-        <v>-0.4687411474418992</v>
+        <v>-0.2610220372837692</v>
       </c>
       <c r="G13">
-        <v>-0.2551474109997061</v>
+        <v>-0.4723563104746108</v>
       </c>
       <c r="H13">
-        <v>0.05285908076345025</v>
+        <v>-0.2568270884946112</v>
       </c>
       <c r="I13">
-        <v>-0.1022254650337468</v>
+        <v>0.05207866879825723</v>
       </c>
       <c r="J13">
-        <v>0.5478383610817548</v>
+        <v>-0.1025880601374284</v>
       </c>
       <c r="K13">
-        <v>0.3315048434816775</v>
+        <v>0.5476698920998867</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1002,34 +1002,34 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.3204423536017646</v>
+        <v>-0.1414695961309799</v>
       </c>
       <c r="C14">
-        <v>-0.2897555356160152</v>
+        <v>-0.2791950053566942</v>
       </c>
       <c r="D14">
-        <v>-0.4785434472588804</v>
+        <v>-0.2708243371007503</v>
       </c>
       <c r="E14">
-        <v>-0.2526553077156036</v>
+        <v>-0.4698642071905083</v>
       </c>
       <c r="F14">
-        <v>0.06101006323956631</v>
+        <v>-0.2486761060184952</v>
       </c>
       <c r="G14">
-        <v>-0.09146971300380768</v>
+        <v>0.06283442082819635</v>
       </c>
       <c r="H14">
-        <v>0.5597931274032256</v>
+        <v>-0.09063329381595758</v>
       </c>
       <c r="I14">
-        <v>0.3440115546243878</v>
+        <v>0.560176603242597</v>
       </c>
       <c r="J14">
-        <v>-0.06284176098887906</v>
+        <v>0.3441873680460773</v>
       </c>
       <c r="K14">
-        <v>0.4362810619427306</v>
+        <v>-0.06276115523468917</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1037,34 +1037,34 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.3361387249989222</v>
+        <v>-0.1284196148407921</v>
       </c>
       <c r="C15">
-        <v>-0.172079154149077</v>
+        <v>-0.3892880536239818</v>
       </c>
       <c r="D15">
-        <v>0.1140244002424372</v>
+        <v>-0.1956617690156243</v>
       </c>
       <c r="E15">
-        <v>-0.05074182916399023</v>
+        <v>0.1035623046680138</v>
       </c>
       <c r="F15">
-        <v>0.5950432373871204</v>
+        <v>-0.05538318383206281</v>
       </c>
       <c r="G15">
-        <v>0.376819120134967</v>
+        <v>0.5929841687531761</v>
       </c>
       <c r="H15">
-        <v>-0.03112348437038687</v>
+        <v>0.3759056446645694</v>
       </c>
       <c r="I15">
-        <v>0.4675134828696286</v>
+        <v>-0.03152873430779118</v>
       </c>
       <c r="J15">
-        <v>0.308484786548516</v>
+        <v>0.4673336997040285</v>
       </c>
       <c r="K15">
-        <v>0.3645688493654578</v>
+        <v>0.3084050283952137</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1072,34 +1072,34 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.2919567931684033</v>
+        <v>-0.01772937608965819</v>
       </c>
       <c r="C16">
-        <v>0.03611576641084058</v>
+        <v>0.1904199002428446</v>
       </c>
       <c r="D16">
-        <v>0.6379689631723193</v>
+        <v>-0.01245745804686382</v>
       </c>
       <c r="E16">
-        <v>0.3987277948059625</v>
+        <v>0.6148928434241717</v>
       </c>
       <c r="F16">
-        <v>-0.01926926647574417</v>
+        <v>0.3877598625592121</v>
       </c>
       <c r="G16">
-        <v>0.4745601165931918</v>
+        <v>-0.02448210058422801</v>
       </c>
       <c r="H16">
-        <v>0.3132336451036749</v>
+        <v>0.4720825582591874</v>
       </c>
       <c r="I16">
-        <v>0.3682199310910328</v>
+        <v>0.3120561101207888</v>
       </c>
       <c r="J16">
-        <v>2.617463111368334</v>
+        <v>0.3676602717569419</v>
       </c>
       <c r="K16">
-        <v>10.0863474470963</v>
+        <v>2.617197116239002</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1107,34 +1107,34 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.04668378654349858</v>
+        <v>0.2009879203755026</v>
       </c>
       <c r="C17">
-        <v>0.646743751744091</v>
+        <v>-0.003682669475092215</v>
       </c>
       <c r="D17">
-        <v>0.4065301988496979</v>
+        <v>0.6226952474679071</v>
       </c>
       <c r="E17">
-        <v>-0.01195920564123576</v>
+        <v>0.3950699233937206</v>
       </c>
       <c r="F17">
-        <v>0.4816209642468198</v>
+        <v>-0.01742125293059998</v>
       </c>
       <c r="G17">
-        <v>0.3201688216047165</v>
+        <v>0.4790177347602291</v>
       </c>
       <c r="H17">
-        <v>0.3750919343242142</v>
+        <v>0.3189281133539701</v>
       </c>
       <c r="I17">
-        <v>2.624303448075727</v>
+        <v>0.3745006084643348</v>
       </c>
       <c r="J17">
-        <v>10.09317195097463</v>
+        <v>2.624021620117335</v>
       </c>
       <c r="K17">
-        <v>-8.078224169346534</v>
+        <v>10.09303763079093</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1142,34 +1142,34 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.5397693479284105</v>
+        <v>-0.1106570732907728</v>
       </c>
       <c r="C18">
-        <v>0.3412705759114291</v>
+        <v>0.5574356245296381</v>
       </c>
       <c r="D18">
-        <v>-0.05754980417421507</v>
+        <v>0.3494793248607413</v>
       </c>
       <c r="E18">
-        <v>0.4452902877305661</v>
+        <v>-0.0537519294468537</v>
       </c>
       <c r="F18">
-        <v>0.2881987268708067</v>
+        <v>0.4470476400263193</v>
       </c>
       <c r="G18">
-        <v>0.3451757067707001</v>
+        <v>0.2890118858004561</v>
       </c>
       <c r="H18">
-        <v>2.595354809876611</v>
+        <v>0.3455519702652192</v>
       </c>
       <c r="I18">
-        <v>10.06467924472723</v>
+        <v>2.59552891386994</v>
       </c>
       <c r="J18">
-        <v>-8.106501994311596</v>
+        <v>10.06475980582587</v>
       </c>
       <c r="K18">
-        <v>0.03320682975976369</v>
+        <v>-8.106464717219385</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1177,34 +1177,34 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0.3751437736559251</v>
+        <v>0.5913088222741343</v>
       </c>
       <c r="C19">
-        <v>-0.0547966439174179</v>
+        <v>0.3522324851175385</v>
       </c>
       <c r="D19">
-        <v>0.4337013568798115</v>
+        <v>-0.06534086029760827</v>
       </c>
       <c r="E19">
-        <v>0.2700773128138926</v>
+        <v>0.4289262259694052</v>
       </c>
       <c r="F19">
-        <v>0.3240755934079451</v>
+        <v>0.267911772437701</v>
       </c>
       <c r="G19">
-        <v>2.572896473190138</v>
+        <v>0.3230936335787457</v>
       </c>
       <c r="H19">
-        <v>10.04160153156291</v>
+        <v>2.57245120070562</v>
       </c>
       <c r="I19">
-        <v>-8.129862178460501</v>
+        <v>10.04139962167697</v>
       </c>
       <c r="J19">
-        <v>0.009717811984482905</v>
+        <v>-8.129953734994666</v>
       </c>
       <c r="K19">
-        <v>2.157246767248676</v>
+        <v>0.009676295449283501</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1212,34 +1212,34 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.312072073423668</v>
+        <v>0.09495705561128835</v>
       </c>
       <c r="C20">
-        <v>0.3024220853976149</v>
+        <v>-0.1966201317798049</v>
       </c>
       <c r="D20">
-        <v>0.1967216315401449</v>
+        <v>0.3555705446956575</v>
       </c>
       <c r="E20">
-        <v>0.2768343187407715</v>
+        <v>0.2206704977705274</v>
       </c>
       <c r="F20">
-        <v>2.5374495888114</v>
+        <v>0.2876467492000076</v>
       </c>
       <c r="G20">
-        <v>10.01148064496908</v>
+        <v>2.542330314111783</v>
       </c>
       <c r="H20">
-        <v>-8.15757796247812</v>
+        <v>10.01368383765935</v>
       </c>
       <c r="I20">
-        <v>-0.01691188077547812</v>
+        <v>-8.156583427754628</v>
       </c>
       <c r="J20">
-        <v>2.13110753017287</v>
+        <v>-0.01646294162652273</v>
       </c>
       <c r="K20">
-        <v>-1.308719802433826</v>
+        <v>2.131310184089503</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1247,34 +1247,34 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>0.259157971428892</v>
+        <v>-0.2398842457485278</v>
       </c>
       <c r="C21">
-        <v>0.16838023551327</v>
+        <v>0.3272291486687826</v>
       </c>
       <c r="D21">
-        <v>0.2521582932286491</v>
+        <v>0.1959944722584051</v>
       </c>
       <c r="E21">
-        <v>2.513162955834568</v>
+        <v>0.2633601162231758</v>
       </c>
       <c r="F21">
-        <v>9.986857348713633</v>
+        <v>2.517707017856339</v>
       </c>
       <c r="G21">
-        <v>-8.182561135418815</v>
+        <v>9.988700664718653</v>
       </c>
       <c r="H21">
-        <v>-0.04214184030638374</v>
+        <v>-8.181813387285533</v>
       </c>
       <c r="I21">
-        <v>2.105731958361166</v>
+        <v>-0.04183851343822592</v>
       </c>
       <c r="J21">
-        <v>-1.334174982466894</v>
+        <v>2.105855004056436</v>
       </c>
       <c r="K21">
-        <v>-1.395299246927819</v>
+        <v>-1.334125068513618</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1282,34 +1282,34 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>0.2785713907394387</v>
+        <v>0.4374203038949512</v>
       </c>
       <c r="C22">
-        <v>0.3082809271729959</v>
+        <v>0.2521171062027519</v>
       </c>
       <c r="D22">
-        <v>2.547244771768479</v>
+        <v>0.2974419321570869</v>
       </c>
       <c r="E22">
-        <v>10.01195673258608</v>
+        <v>2.542806401728791</v>
       </c>
       <c r="F22">
-        <v>-8.161122484703073</v>
+        <v>10.0101393154344</v>
       </c>
       <c r="G22">
-        <v>-0.02219513091605813</v>
+        <v>-8.161866677895206</v>
       </c>
       <c r="H22">
-        <v>2.12507060979506</v>
+        <v>-0.02249986200433229</v>
       </c>
       <c r="I22">
-        <v>-1.315084157547472</v>
+        <v>2.124945828975858</v>
       </c>
       <c r="J22">
-        <v>-1.376309431020366</v>
+        <v>-1.315135252606165</v>
       </c>
       <c r="K22">
-        <v>0.665125583809529</v>
+        <v>-1.376330353346725</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1317,34 +1317,34 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1514308419078968</v>
+        <v>0.09526702093765275</v>
       </c>
       <c r="C23">
-        <v>2.452077041002839</v>
+        <v>0.2022742013914471</v>
       </c>
       <c r="D23">
-        <v>9.957529601920154</v>
+        <v>2.48837927106286</v>
       </c>
       <c r="E23">
-        <v>-8.197676472114839</v>
+        <v>9.973585328022629</v>
       </c>
       <c r="F23">
-        <v>-0.04986031939925989</v>
+        <v>-8.18953186637841</v>
       </c>
       <c r="G23">
-        <v>2.101663470123121</v>
+        <v>-0.04590700167627143</v>
       </c>
       <c r="H23">
-        <v>-1.336421077423499</v>
+        <v>2.10360890909983</v>
       </c>
       <c r="I23">
-        <v>-1.396642028765399</v>
+        <v>-1.335467850351198</v>
       </c>
       <c r="J23">
-        <v>0.6452816047775823</v>
+        <v>-1.396174332378672</v>
       </c>
       <c r="K23">
-        <v>0.06291644308519029</v>
+        <v>0.6455109801188312</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1352,34 +1352,34 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>2.403213427390482</v>
+        <v>0.1534105877790901</v>
       </c>
       <c r="C24">
-        <v>9.929760751643483</v>
+        <v>2.460610420786189</v>
       </c>
       <c r="D24">
-        <v>-8.214896317152331</v>
+        <v>9.956365482985138</v>
       </c>
       <c r="E24">
-        <v>-0.06195543535285469</v>
+        <v>-8.201626982332003</v>
       </c>
       <c r="F24">
-        <v>2.092079342639022</v>
+        <v>-0.05549112916037019</v>
       </c>
       <c r="G24">
-        <v>-1.344778008240451</v>
+        <v>2.095251978282879</v>
       </c>
       <c r="H24">
-        <v>-1.404398746163505</v>
+        <v>-1.343224567749304</v>
       </c>
       <c r="I24">
-        <v>0.6378183817016827</v>
+        <v>-1.403637555454572</v>
       </c>
       <c r="J24">
-        <v>0.05559674216991822</v>
+        <v>0.6381912792035592</v>
       </c>
       <c r="K24">
-        <v>0.1514544743675568</v>
+        <v>0.05577943355819903</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1387,34 +1387,34 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>9.881040825240538</v>
+        <v>2.411890494383244</v>
       </c>
       <c r="C25">
-        <v>-8.249324585355328</v>
+        <v>9.92193721478214</v>
       </c>
       <c r="D25">
-        <v>-0.0836191634519744</v>
+        <v>-8.223290710431124</v>
       </c>
       <c r="E25">
-        <v>2.07573904723772</v>
+        <v>-0.07183142456167213</v>
       </c>
       <c r="F25">
-        <v>-1.358376186195071</v>
+        <v>2.081653800328259</v>
       </c>
       <c r="G25">
-        <v>-1.416680482701012</v>
+        <v>-1.355506304286811</v>
       </c>
       <c r="H25">
-        <v>0.6261829423615652</v>
+        <v>-1.415272994794689</v>
       </c>
       <c r="I25">
-        <v>0.04427631043098978</v>
+        <v>0.6268708474646307</v>
       </c>
       <c r="J25">
-        <v>0.1402879346210716</v>
+        <v>0.04461289381171379</v>
       </c>
       <c r="K25">
-        <v>-0.1199664748049847</v>
+        <v>0.1404525621937381</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1422,34 +1422,34 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-9.164875883305404</v>
+        <v>9.006385916832064</v>
       </c>
       <c r="C26">
-        <v>-0.6390580781019446</v>
+        <v>-8.778729625081095</v>
       </c>
       <c r="D26">
-        <v>1.756819337039955</v>
+        <v>-0.3907511347594377</v>
       </c>
       <c r="E26">
-        <v>-1.567578570662666</v>
+        <v>1.872451415860664</v>
       </c>
       <c r="F26">
-        <v>-1.569897914509819</v>
+        <v>-1.508723736095618</v>
       </c>
       <c r="G26">
-        <v>0.5007280727555402</v>
+        <v>-1.540727864400714</v>
       </c>
       <c r="H26">
-        <v>-0.06729608136246609</v>
+        <v>0.5152984556711749</v>
       </c>
       <c r="I26">
-        <v>0.03564018068714139</v>
+        <v>-0.0600348601222164</v>
       </c>
       <c r="J26">
-        <v>-0.2211577533692581</v>
+        <v>0.03926128362946471</v>
       </c>
       <c r="K26">
-        <v>0.6161026952046367</v>
+        <v>-0.2193523009538546</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1457,34 +1457,34 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-7.804287960688893</v>
+        <v>-15.94395950766804</v>
       </c>
       <c r="C27">
-        <v>-4.017835460506984</v>
+        <v>-6.165405932306377</v>
       </c>
       <c r="D27">
-        <v>-6.209636531594684</v>
+        <v>-2.769606545071355</v>
       </c>
       <c r="E27">
-        <v>-5.320425743141963</v>
+        <v>-5.259251564727762</v>
       </c>
       <c r="F27">
-        <v>-2.555357096058843</v>
+        <v>-4.596813033215097</v>
       </c>
       <c r="G27">
-        <v>-2.587000852527612</v>
+        <v>-2.004406315493971</v>
       </c>
       <c r="H27">
-        <v>-2.071837930259698</v>
+        <v>-2.167512971069056</v>
       </c>
       <c r="I27">
-        <v>-2.012863495286662</v>
+        <v>-1.752444458287939</v>
       </c>
       <c r="J27">
-        <v>-0.9342258126975603</v>
+        <v>-1.769680808856052</v>
       </c>
       <c r="K27">
-        <v>-0.8491485423956758</v>
+        <v>-0.7490691824930543</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1492,34 +1492,34 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-2.33765431393776</v>
+        <v>-4.485224785737152</v>
       </c>
       <c r="C28">
-        <v>1.20640823091402</v>
+        <v>4.64643821743735</v>
       </c>
       <c r="D28">
-        <v>-3.07236942691687</v>
+        <v>-3.011195248502669</v>
       </c>
       <c r="E28">
-        <v>1.426003919130331</v>
+        <v>-0.6154520180259231</v>
       </c>
       <c r="F28">
-        <v>-0.6088189506176367</v>
+        <v>-0.02622441358399569</v>
       </c>
       <c r="G28">
-        <v>0.3401683158106229</v>
+        <v>0.2444932750012651</v>
       </c>
       <c r="H28">
-        <v>-0.4228531167856981</v>
+        <v>-0.1624340797869752</v>
       </c>
       <c r="I28">
-        <v>0.7083467336122384</v>
+        <v>-0.1271082625462527</v>
       </c>
       <c r="J28">
-        <v>0.4341740973116463</v>
+        <v>0.5342534572142679</v>
       </c>
       <c r="K28">
-        <v>0.1828529054995925</v>
+        <v>0.5366394115792887</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1527,34 +1527,34 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-2.520798295803975</v>
+        <v>0.9192316907193552</v>
       </c>
       <c r="C29">
-        <v>-1.209498772153247</v>
+        <v>-1.148324593739046</v>
       </c>
       <c r="D29">
-        <v>0.6650949949593515</v>
+        <v>-1.376360942196903</v>
       </c>
       <c r="E29">
-        <v>-0.05858795499538469</v>
+        <v>0.5240065820382563</v>
       </c>
       <c r="F29">
-        <v>0.09291507488738329</v>
+        <v>-0.0027599659219745</v>
       </c>
       <c r="G29">
-        <v>-0.1622689761646768</v>
+        <v>0.09815006083404601</v>
       </c>
       <c r="H29">
-        <v>0.6645657133825503</v>
+        <v>-0.1708892827759409</v>
       </c>
       <c r="I29">
-        <v>0.5658615947808475</v>
+        <v>0.665940954683469</v>
       </c>
       <c r="J29">
-        <v>0.2128828273432847</v>
+        <v>0.5666693334229809</v>
       </c>
       <c r="K29">
-        <v>0.3606851936599405</v>
+        <v>0.2125078032274952</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1562,34 +1562,34 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.801266318531477</v>
+        <v>-0.740092140117276</v>
       </c>
       <c r="C30">
-        <v>0.9167180388457457</v>
+        <v>-1.124737898310509</v>
       </c>
       <c r="D30">
-        <v>-0.14049400881852</v>
+        <v>0.442100528215121</v>
       </c>
       <c r="E30">
-        <v>0.1680071242686689</v>
+        <v>0.07233208345931114</v>
       </c>
       <c r="F30">
-        <v>-0.056361815650953</v>
+        <v>0.2040572213477698</v>
       </c>
       <c r="G30">
-        <v>0.7229823595412057</v>
+        <v>-0.1124726366172855</v>
       </c>
       <c r="H30">
-        <v>0.6323002786109391</v>
+        <v>0.7323796385135606</v>
       </c>
       <c r="I30">
-        <v>0.2875647859541212</v>
+        <v>0.6413512920338174</v>
       </c>
       <c r="J30">
-        <v>0.4309984855609192</v>
+        <v>0.2828210951284739</v>
       </c>
       <c r="K30">
-        <v>0.5879651212282146</v>
+        <v>0.4305191322240596</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1597,34 +1597,34 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0.8112188269969305</v>
+        <v>-1.230237110159324</v>
       </c>
       <c r="C31">
-        <v>-0.2665992927838778</v>
+        <v>0.3159952442497632</v>
       </c>
       <c r="D31">
-        <v>0.3362551929019006</v>
+        <v>0.2405801520925428</v>
       </c>
       <c r="E31">
-        <v>0.004302276952929285</v>
+        <v>0.2647213139516521</v>
       </c>
       <c r="F31">
-        <v>0.7341151989158385</v>
+        <v>-0.1013397972426526</v>
       </c>
       <c r="G31">
-        <v>0.6951630299378696</v>
+        <v>0.7952423898404911</v>
       </c>
       <c r="H31">
-        <v>0.3449163137478644</v>
+        <v>0.6987028198275607</v>
       </c>
       <c r="I31">
-        <v>0.4755036625652983</v>
+        <v>0.3273262721328529</v>
       </c>
       <c r="J31">
-        <v>0.6390389922546331</v>
+        <v>0.4815930032504782</v>
       </c>
       <c r="K31">
-        <v>0.1406021036577823</v>
+        <v>0.6412615601838532</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1632,34 +1632,34 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.8710399126316165</v>
+        <v>-0.2884453755979755</v>
       </c>
       <c r="C32">
-        <v>0.2720518155472072</v>
+        <v>0.1763767747378494</v>
       </c>
       <c r="D32">
-        <v>0.2958495850101461</v>
+        <v>0.5562686220088688</v>
       </c>
       <c r="E32">
-        <v>0.6964083228299049</v>
+        <v>-0.1390466733285862</v>
       </c>
       <c r="F32">
-        <v>0.6865790098644085</v>
+        <v>0.78665836976703</v>
       </c>
       <c r="G32">
-        <v>0.4286573913452327</v>
+        <v>0.7824438974249289</v>
       </c>
       <c r="H32">
-        <v>0.5103308074933433</v>
+        <v>0.3621534170608979</v>
       </c>
       <c r="I32">
-        <v>0.6656033753069301</v>
+        <v>0.5081573863027752</v>
       </c>
       <c r="J32">
-        <v>0.1861009444043812</v>
+        <v>0.686760400930452</v>
       </c>
       <c r="K32">
-        <v>0.4585159253925983</v>
+        <v>0.1781580448571292</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1667,34 +1667,34 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1844109867082959</v>
+        <v>0.08873594589893813</v>
       </c>
       <c r="C33">
-        <v>0.2434303829804775</v>
+        <v>0.5038494199792003</v>
       </c>
       <c r="D33">
-        <v>0.7550547198149107</v>
+        <v>-0.0804002763435806</v>
       </c>
       <c r="E33">
-        <v>0.6915081552015099</v>
+        <v>0.7915875151041314</v>
       </c>
       <c r="F33">
-        <v>0.4175641082963374</v>
+        <v>0.7713506143760337</v>
       </c>
       <c r="G33">
-        <v>0.5230975067184298</v>
+        <v>0.3749201162859844</v>
       </c>
       <c r="H33">
-        <v>0.6743329343542892</v>
+        <v>0.5168869453501342</v>
       </c>
       <c r="I33">
-        <v>0.188602888553233</v>
+        <v>0.6892623450793038</v>
       </c>
       <c r="J33">
-        <v>0.4647918628642795</v>
+        <v>0.1844339823288103</v>
       </c>
       <c r="K33">
-        <v>0.2901314376394514</v>
+        <v>0.4621062954844631</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1702,34 +1702,34 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0.2658583626134861</v>
+        <v>0.526277399612209</v>
       </c>
       <c r="C34">
-        <v>0.7576582593773593</v>
+        <v>-0.07779673678113191</v>
       </c>
       <c r="D34">
-        <v>0.6694404695474946</v>
+        <v>0.7695198294501161</v>
       </c>
       <c r="E34">
-        <v>0.4115821279919825</v>
+        <v>0.7653686340716788</v>
       </c>
       <c r="F34">
-        <v>0.5177542565360187</v>
+        <v>0.3695768661035733</v>
       </c>
       <c r="G34">
-        <v>0.663964400983923</v>
+        <v>0.506518411979768</v>
       </c>
       <c r="H34">
-        <v>0.1801255664296092</v>
+        <v>0.68078502295568</v>
       </c>
       <c r="I34">
-        <v>0.4570195545574687</v>
+        <v>0.1766616740219995</v>
       </c>
       <c r="J34">
-        <v>0.2815074641064828</v>
+        <v>0.4534823219514945</v>
       </c>
       <c r="K34">
-        <v>0.589805676679554</v>
+        <v>0.2839431369332225</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1737,34 +1737,34 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>0.7790828308345794</v>
+        <v>-0.05637216532391182</v>
       </c>
       <c r="C35">
-        <v>0.7896183183467069</v>
+        <v>0.8896976782493284</v>
       </c>
       <c r="D35">
-        <v>0.3223877835781994</v>
+        <v>0.6761742896578956</v>
       </c>
       <c r="E35">
-        <v>0.4880272526874408</v>
+        <v>0.3398498622549955</v>
       </c>
       <c r="F35">
-        <v>0.6725905210138331</v>
+        <v>0.5151445320096781</v>
       </c>
       <c r="G35">
-        <v>0.154185393004174</v>
+        <v>0.6548448495302448</v>
       </c>
       <c r="H35">
-        <v>0.4342409915292412</v>
+        <v>0.153883110993772</v>
       </c>
       <c r="I35">
-        <v>0.267889428957865</v>
+        <v>0.4398642868028766</v>
       </c>
       <c r="J35">
-        <v>0.5712848794943781</v>
+        <v>0.2654223397480467</v>
       </c>
       <c r="K35">
-        <v>-0.04166000770222517</v>
+        <v>0.570669944985061</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1772,34 +1772,34 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>0.7472976860263175</v>
+        <v>0.847377045928939</v>
       </c>
       <c r="C36">
-        <v>0.2931833097224661</v>
+        <v>0.6469698158021624</v>
       </c>
       <c r="D36">
-        <v>0.4850066528825197</v>
+        <v>0.3368292624500743</v>
       </c>
       <c r="E36">
-        <v>0.6537292374023527</v>
+        <v>0.4962832483981977</v>
       </c>
       <c r="F36">
-        <v>0.1338542619389697</v>
+        <v>0.6345137184650405</v>
       </c>
       <c r="G36">
-        <v>0.4197108360949934</v>
+        <v>0.1393529555595242</v>
       </c>
       <c r="H36">
-        <v>0.251248383465597</v>
+        <v>0.4232232413106087</v>
       </c>
       <c r="I36">
-        <v>0.553701034065628</v>
+        <v>0.2478384943192965</v>
       </c>
       <c r="J36">
-        <v>-0.05813389123226798</v>
+        <v>0.5541960614550182</v>
       </c>
       <c r="K36">
-        <v>0.6310880987550094</v>
+        <v>-0.05728328644410208</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1807,34 +1807,34 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>0.6333810503403763</v>
+        <v>0.9871675564200725</v>
       </c>
       <c r="C37">
-        <v>0.5603777146664568</v>
+        <v>0.4122003242340114</v>
       </c>
       <c r="D37">
-        <v>0.4626359510893536</v>
+        <v>0.3051899620851986</v>
       </c>
       <c r="E37">
-        <v>0.1585481745257029</v>
+        <v>0.6592076310517737</v>
       </c>
       <c r="F37">
-        <v>0.4290902396512893</v>
+        <v>0.1487323591158202</v>
       </c>
       <c r="G37">
-        <v>0.196437584854206</v>
+        <v>0.3684124426992176</v>
       </c>
       <c r="H37">
-        <v>0.5348069431769582</v>
+        <v>0.2289444034306267</v>
       </c>
       <c r="I37">
-        <v>-0.07299789204731372</v>
+        <v>0.5393320606399725</v>
       </c>
       <c r="J37">
-        <v>0.6023763881256388</v>
+        <v>-0.0859949970734728</v>
       </c>
       <c r="K37">
-        <v>0.3304428394308724</v>
+        <v>0.6071339948549791</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1842,31 +1842,34 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>1.011072586656707</v>
+        <v>0.862895196224262</v>
       </c>
       <c r="C38">
-        <v>0.509746653301712</v>
+        <v>0.352300664297557</v>
       </c>
       <c r="D38">
-        <v>-0.08173505626510533</v>
+        <v>0.4189244002609654</v>
       </c>
       <c r="E38">
-        <v>0.4650353207171521</v>
+        <v>0.184677440181683</v>
       </c>
       <c r="F38">
-        <v>0.1943868274146131</v>
+        <v>0.3663616852596248</v>
       </c>
       <c r="G38">
-        <v>0.458238703740928</v>
+        <v>0.1523761639945965</v>
       </c>
       <c r="H38">
-        <v>-0.1003972864225971</v>
+        <v>0.511932666264689</v>
       </c>
       <c r="I38">
-        <v>0.5760873379279133</v>
+        <v>-0.1122840472711982</v>
       </c>
       <c r="J38">
-        <v>0.2870455487175398</v>
+        <v>0.5637367041416466</v>
+      </c>
+      <c r="K38">
+        <v>0.2970525035592049</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1874,28 +1877,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0.8220722402252505</v>
+        <v>0.6646262512210954</v>
       </c>
       <c r="C39">
-        <v>0.051553683470419</v>
+        <v>0.5522131399964898</v>
       </c>
       <c r="D39">
-        <v>0.2859568989009605</v>
+        <v>0.005599018365491398</v>
       </c>
       <c r="E39">
-        <v>0.2225810661851803</v>
+        <v>0.394555924030192</v>
       </c>
       <c r="F39">
-        <v>0.4942640149333215</v>
+        <v>0.18840147518699</v>
       </c>
       <c r="G39">
-        <v>-0.1379388566268107</v>
+        <v>0.4743910960604755</v>
       </c>
       <c r="H39">
-        <v>0.5705449988405521</v>
+        <v>-0.1178263863585594</v>
       </c>
       <c r="I39">
-        <v>0.2912208776562884</v>
+        <v>0.5679120330803951</v>
+      </c>
+      <c r="J39">
+        <v>0.2858677898194339</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1903,25 +1909,28 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>0.2871441745782602</v>
+        <v>0.787803631104331</v>
       </c>
       <c r="C40">
-        <v>0.3706356397752701</v>
+        <v>0.09027775923980097</v>
       </c>
       <c r="D40">
-        <v>0.07698069955146319</v>
+        <v>0.2489555573964748</v>
       </c>
       <c r="E40">
-        <v>0.5042177577925642</v>
+        <v>0.1983552180462326</v>
       </c>
       <c r="F40">
-        <v>-0.1225736869272658</v>
+        <v>0.4897562657600204</v>
       </c>
       <c r="G40">
-        <v>0.5316966638831291</v>
+        <v>-0.1566747213159825</v>
       </c>
       <c r="H40">
-        <v>0.2753750686291025</v>
+        <v>0.5520662240532093</v>
+      </c>
+      <c r="I40">
+        <v>0.2775335613519331</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1929,22 +1938,25 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>0.6816598262566529</v>
+        <v>0.4013019457211838</v>
       </c>
       <c r="C41">
-        <v>0.1940694739626584</v>
+        <v>0.36604433180767</v>
       </c>
       <c r="D41">
-        <v>0.3417536163429973</v>
+        <v>0.03589107659666579</v>
       </c>
       <c r="E41">
-        <v>-0.0936147364620642</v>
+        <v>0.518715216225222</v>
       </c>
       <c r="F41">
-        <v>0.5674395363380327</v>
+        <v>-0.1209318488610789</v>
       </c>
       <c r="G41">
-        <v>0.2440474222454754</v>
+        <v>0.5207385776695821</v>
+      </c>
+      <c r="H41">
+        <v>0.2743085116504074</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1952,19 +1964,22 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>0.4408946513667728</v>
+        <v>0.6128695092117844</v>
       </c>
       <c r="C42">
-        <v>0.3594094838808868</v>
+        <v>0.0535469441345553</v>
       </c>
       <c r="D42">
-        <v>-0.1882369755730587</v>
+        <v>0.4240929771142275</v>
       </c>
       <c r="E42">
-        <v>0.5996569245865127</v>
+        <v>-0.0887144606125988</v>
       </c>
       <c r="F42">
-        <v>0.2564355480731927</v>
+        <v>0.5331267034972994</v>
+      </c>
+      <c r="G42">
+        <v>0.2534447081011285</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1972,16 +1987,19 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>0.5990858432970987</v>
+        <v>0.2932233035507672</v>
       </c>
       <c r="C43">
-        <v>-0.1032127321038452</v>
+        <v>0.509117220583441</v>
       </c>
       <c r="D43">
-        <v>0.4831723462284986</v>
+        <v>-0.2051990389706129</v>
       </c>
       <c r="E43">
-        <v>0.2715408197250452</v>
+        <v>0.5482319751491519</v>
+      </c>
+      <c r="F43">
+        <v>0.2766837437271186</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1989,13 +2007,16 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>0.0616473449302421</v>
+        <v>0.6739772976175282</v>
       </c>
       <c r="C44">
-        <v>0.4967096184764148</v>
+        <v>-0.1916617667226967</v>
       </c>
       <c r="D44">
-        <v>0.2085679007350822</v>
+        <v>0.4852590561591889</v>
+      </c>
+      <c r="E44">
+        <v>0.2867219094086165</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2003,10 +2024,13 @@
         <v>53</v>
       </c>
       <c r="B45">
-        <v>0.7505586603418228</v>
+        <v>0.06218727514271133</v>
       </c>
       <c r="C45">
-        <v>0.3078859509171186</v>
+        <v>0.5845771063412253</v>
+      </c>
+      <c r="D45">
+        <v>0.1751453671933744</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2014,12 +2038,18 @@
         <v>54</v>
       </c>
       <c r="B46">
-        <v>0.3519456421565676</v>
+        <v>0.6286367975806744</v>
+      </c>
+      <c r="C46">
+        <v>0.1965658720679752</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="B47">
+        <v>0.4328090033804217</v>
       </c>
     </row>
   </sheetData>
